--- a/censuses_4a/src/test/resources/censo.xlsx
+++ b/censuses_4a/src/test/resources/censo.xlsx
@@ -156,13 +156,13 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.4615384615385"/>
   </cols>
   <sheetData>
@@ -177,7 +177,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -191,7 +191,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -205,7 +205,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -219,7 +219,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
